--- a/data analysis/Exercise done/5_Distributions/Call Center Analysis.xlsx
+++ b/data analysis/Exercise done/5_Distributions/Call Center Analysis.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmullen/Data/EasierTech/ASPE/Introduction to Data Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheagraw/Google Drive/training/Data Analysis/Exercise done/5_Distributions/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF50FD4-04CB-4D4B-8FBD-22FC22CE89F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="3180" windowWidth="26560" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="1020" yWindow="1000" windowWidth="26560" windowHeight="14740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,19 +28,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Measurement Log Number</t>
   </si>
   <si>
     <t>Calls per Hour</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>Bins</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>P(X&gt;6)</t>
+  </si>
+  <si>
+    <t>P(X&gt;8)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -47,13 +72,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80,8 +128,974 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frequency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6250-C943-93AE-C4477967D08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1170933503"/>
+        <c:axId val="1171031375"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1170933503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171031375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1171031375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170933503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C97325-D3FD-4445-BDBC-05A5632E7A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,11 +1360,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -359,143 +1373,298 @@
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="array" ref="H2:H17">FREQUENCY(B2:B5001,G2:G17)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <f>AVERAGE(B2:B5001)</f>
+        <v>4.0316000000000001</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>_xlfn.STDEV.P(B2:B5001)</f>
+        <v>2.0210396928313901</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <f>MIN(B2:B5001)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <f>MAX(B2:B5001)</f>
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <f>1-_xlfn.POISSON.DIST(6,4.03,TRUE)</f>
+        <v>0.11382323197148159</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <f>1-_xlfn.POISSON.DIST(8,4.03,TRUE)</f>
+        <v>2.2270003237809366E-2</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -503,7 +1672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -511,7 +1680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -519,7 +1688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -527,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -535,7 +1704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -543,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -551,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -559,7 +1728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -567,7 +1736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -575,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -583,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -591,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -599,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -607,7 +1776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -40369,5 +41538,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>